--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009EDB45-C95C-4D24-A41A-FF6830E397DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD17BF7-53F3-4E4B-8AA9-AE423E5B14DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62100" yWindow="5490" windowWidth="14505" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="63060" yWindow="585" windowWidth="16140" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,30 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CraftBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,27 +100,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bone_3+Stone_10+Wood_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rope_1+Wood_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rope_1+Wood_1+Stone_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rope_1+Wood_1+Bone_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rope_1+Wood_1+Iron_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rope_1+Wood_1+Gold_1</t>
+    <t>NameKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모닥불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밧줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CraftingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무물병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철물병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌물병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈물병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금물병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodAx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlingShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneAx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodPickax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StonePickax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonePickax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronAx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronPickax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldAx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPickax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rope_2+Branch_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rope_4+Branch_4+Leather_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_6+Rope_2+Iron_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedCraftingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_1+Wood_1+Rope_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_2+Rope_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_1+Wood_1+Rope_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_2+Rope_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_1+Wood_1+Rope_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_2+Rope_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_1+Wood_1+Rope_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_2+Rope_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_2+Rope_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_1+Rope_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_2+Rope_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_10+Bone_3+Stone_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,11 +531,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,22 +855,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A11:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,139 +880,782 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+    <sortCondition ref="C39"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD17BF7-53F3-4E4B-8AA9-AE423E5B14DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B2C8A-BF46-40B2-A362-A6488385353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63060" yWindow="585" windowWidth="16140" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="17325" yWindow="1440" windowWidth="24270" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무물병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SlingShot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StoneBottle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,10 +465,6 @@
   </si>
   <si>
     <t>Wood_2+Rope_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood_1+Rope_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -855,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -886,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -894,10 +882,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -906,18 +894,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -926,18 +914,18 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -946,18 +934,18 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -966,18 +954,18 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -986,18 +974,18 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1006,18 +994,18 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1026,18 +1014,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1046,18 +1034,18 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1066,18 +1054,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1086,18 +1074,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1106,18 +1094,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1126,18 +1114,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1146,18 +1134,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1166,18 +1154,18 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1186,18 +1174,18 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1206,18 +1194,18 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1226,18 +1214,18 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1246,18 +1234,18 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -1266,18 +1254,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1286,18 +1274,18 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1306,18 +1294,18 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1326,18 +1314,18 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1346,18 +1334,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1366,10 +1354,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1386,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1406,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1426,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1434,7 +1422,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>20</v>
@@ -1446,15 +1434,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>21</v>
@@ -1466,15 +1454,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>22</v>
@@ -1486,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1506,18 +1494,18 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1526,15 +1514,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
@@ -1546,15 +1534,15 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
@@ -1566,15 +1554,15 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>27</v>
@@ -1586,18 +1574,18 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -1606,15 +1594,15 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -1626,35 +1614,15 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-    <sortCondition ref="C39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
+    <sortCondition ref="C38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B2C8A-BF46-40B2-A362-A6488385353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0CADC2-C807-4803-94EF-5945518B4278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17325" yWindow="1440" windowWidth="24270" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="20688" yWindow="19092" windowWidth="25416" windowHeight="15264" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WoodAx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WoodSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoneAx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StoneSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,22 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BoneAx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodPickax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StonePickax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BonePickax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BoneSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IronAx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronPickax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IronSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,58 +304,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GoldAx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldPickax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WoodHelmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneHelmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneHelmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronHelmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldHelmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rope_2+Branch_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +393,86 @@
   </si>
   <si>
     <t>Wood_10+Bone_3+Stone_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonePickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StonePickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronHeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodHead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -894,15 +894,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>35</v>
@@ -914,15 +914,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>36</v>
@@ -934,15 +934,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -954,15 +954,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
@@ -974,15 +974,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
@@ -994,15 +994,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
@@ -1014,15 +1014,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -1034,15 +1034,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>43</v>
@@ -1054,15 +1054,15 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>44</v>
@@ -1074,15 +1074,15 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -1094,15 +1094,15 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
@@ -1114,15 +1114,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -1134,15 +1134,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -1154,15 +1154,15 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>39</v>
@@ -1174,15 +1174,15 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -1194,15 +1194,15 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>51</v>
@@ -1214,15 +1214,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>52</v>
@@ -1234,15 +1234,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>30</v>
@@ -1254,15 +1254,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>31</v>
@@ -1274,15 +1274,15 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>32</v>
@@ -1294,15 +1294,15 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
@@ -1314,15 +1314,15 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
@@ -1334,15 +1334,15 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
@@ -1354,10 +1354,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1434,10 +1434,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1454,10 +1454,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1474,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1494,10 +1494,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1514,15 +1514,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
@@ -1534,15 +1534,15 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
@@ -1554,15 +1554,15 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>27</v>
@@ -1574,15 +1574,15 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
@@ -1594,15 +1594,15 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -1614,10 +1614,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0CADC2-C807-4803-94EF-5945518B4278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFDD23-293E-4F1C-9826-7428CAE81E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20688" yWindow="19092" windowWidth="25416" windowHeight="15264" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="16500" yWindow="3090" windowWidth="17715" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,15 +464,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IronHeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StoneHead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WoodHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronHead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>51</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>

--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFDD23-293E-4F1C-9826-7428CAE81E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E69EE8-792C-4C04-8E7C-109DEC399DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="3090" windowWidth="17715" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="32505" yWindow="3840" windowWidth="24510" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,14 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,14 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Carrier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,14 +289,6 @@
   </si>
   <si>
     <t>GoldSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rope_2+Branch_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rope_4+Branch_4+Leather_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -882,10 +858,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -894,18 +870,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -914,18 +890,18 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -934,18 +910,18 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -954,18 +930,18 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -974,18 +950,18 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -994,18 +970,18 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1014,18 +990,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1034,18 +1010,18 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1054,18 +1030,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1074,18 +1050,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1094,18 +1070,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1114,18 +1090,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1134,18 +1110,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1154,18 +1130,18 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1174,18 +1150,18 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1194,18 +1170,18 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1214,18 +1190,18 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1234,18 +1210,18 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -1254,18 +1230,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1274,18 +1250,18 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1294,18 +1270,18 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1314,18 +1290,18 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1334,18 +1310,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1354,10 +1330,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1374,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1394,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1414,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1422,7 +1398,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>20</v>
@@ -1431,18 +1407,18 @@
         <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>21</v>
@@ -1454,75 +1430,75 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
@@ -1534,18 +1510,18 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -1554,18 +1530,18 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1574,55 +1550,15 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
-    <sortCondition ref="C38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+    <sortCondition ref="C36"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E69EE8-792C-4C04-8E7C-109DEC399DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD25B4-2D60-47CB-A2CE-4C63E989EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32505" yWindow="3840" windowWidth="24510" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="33180" yWindow="2535" windowWidth="21810" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wood_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stone_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,95 +356,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wood_2+Rope_1</t>
+    <t>Wood_10+Bone_3+Stone_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonePickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StonePickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch_2+Rope_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch_2+Rope_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishingRod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wood_2+Rope_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood_10+Bone_3+Stone_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BonePickaxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldPickaxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronPickaxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StonePickaxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodPickaxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneChest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldChest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronChest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneChest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodChest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronHead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -850,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -870,15 +882,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
@@ -890,15 +902,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -910,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -930,15 +942,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>47</v>
@@ -950,15 +962,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
@@ -970,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -990,15 +1002,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -1010,15 +1022,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -1030,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1050,15 +1062,15 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
@@ -1070,15 +1082,15 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>52</v>
@@ -1090,10 +1102,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1110,15 +1122,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1130,15 +1142,15 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1150,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1170,15 +1182,15 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -1190,15 +1202,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -1210,10 +1222,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1230,15 +1242,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -1250,15 +1262,15 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -1270,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1290,15 +1302,15 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
@@ -1310,15 +1322,15 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>46</v>
@@ -1330,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1370,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1390,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1410,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>64</v>
@@ -1430,10 +1442,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,18 +1462,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1470,18 +1482,18 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1490,18 +1502,18 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1510,18 +1522,18 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -1533,15 +1545,15 @@
         <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1550,15 +1562,35 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
-    <sortCondition ref="C36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+    <sortCondition ref="C37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD25B4-2D60-47CB-A2CE-4C63E989EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAB3CA8-21E9-4566-AB48-E605C4790E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="2535" windowWidth="21810" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="60195" yWindow="5775" windowWidth="17910" windowHeight="13725" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제작대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WoodBottle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +453,14 @@
   </si>
   <si>
     <t>Wood_2+Rope_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +834,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -882,18 +882,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -902,18 +902,18 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -922,18 +922,18 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -942,18 +942,18 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -962,18 +962,18 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -982,18 +982,18 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1002,18 +1002,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1022,18 +1022,18 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1042,18 +1042,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1062,18 +1062,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1082,18 +1082,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1102,18 +1102,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1122,18 +1122,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1142,18 +1142,18 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1162,18 +1162,18 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1182,18 +1182,18 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1202,18 +1202,18 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1222,18 +1222,18 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -1242,18 +1242,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1262,18 +1262,18 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1282,18 +1282,18 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1302,18 +1302,18 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1322,18 +1322,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1342,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1382,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1422,18 +1422,18 @@
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1442,18 +1442,18 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -1462,18 +1462,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1482,18 +1482,18 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1502,18 +1502,18 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1522,18 +1522,18 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -1542,18 +1542,18 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1562,18 +1562,18 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -1582,10 +1582,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/CraftingData.xlsx
+++ b/Assets/Data/CraftingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAB3CA8-21E9-4566-AB48-E605C4790E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E7931-65A5-4A0E-A7B5-0AA60F1A2A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60195" yWindow="5775" windowWidth="17910" windowHeight="13725" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="30030" yWindow="2190" windowWidth="19755" windowHeight="20475" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,22 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stone_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iron_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NeedCraftingTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Branch_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Branch_2+Rope_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +441,26 @@
   </si>
   <si>
     <t>가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch_1+Bone_1+Iron_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_1+Bone_1+Iron_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_1+Iron_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_1+Iron_1+Gold_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_2+Iron_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -879,18 +879,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -902,15 +902,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -922,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,15 +942,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>46</v>
@@ -962,15 +962,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -982,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -999,18 +999,18 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -1022,15 +1022,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>40</v>
@@ -1042,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1062,15 +1062,15 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>50</v>
@@ -1082,15 +1082,15 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>51</v>
@@ -1102,10 +1102,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1119,18 +1119,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
@@ -1142,15 +1142,15 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>36</v>
@@ -1162,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1182,15 +1182,15 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -1202,15 +1202,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -1222,10 +1222,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1239,18 +1239,18 @@
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
@@ -1262,15 +1262,15 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -1282,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1302,15 +1302,15 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
@@ -1322,15 +1322,15 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>45</v>
@@ -1342,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1382,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>62</v>
@@ -1442,10 +1442,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1459,21 +1459,21 @@
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1482,15 +1482,15 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
@@ -1502,15 +1502,15 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -1522,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1542,15 +1542,15 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
@@ -1562,15 +1562,15 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>43</v>
@@ -1582,10 +1582,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
